--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/46_Kastamonu_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/46_Kastamonu_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE39B8BD-ECAA-4927-8B12-4B754B61212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA3A8EC8-5E06-466C-B104-9997FC2463C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{1736AE1E-74E8-48DD-AC38-936DFEAE6B3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{A92F3C79-B010-4566-8C50-064608A0643F}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{22860885-463C-405A-AB79-7E13BC90EC08}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A2801F62-41C0-4EC5-9D42-F2383A928F73}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{541A7BC4-1B36-43F4-B557-B9D75D529B5B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{231F9B20-F638-4E09-96FE-1E5A73F473E9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{88CD6685-512D-4D88-B03A-64C17A7D0655}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{4F08506E-2B1A-4DD7-AB5E-62D63C07347A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{6860824E-C097-410B-84B5-B954FF22C18D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D3B19F37-42C8-43A0-A8AD-7638E5112A1A}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C2A55549-03D0-48B2-A842-0AB1C787AEA4}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{1058CF9E-84D0-4F04-B3EF-8B3F96B687D0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F16B9742-346F-4C9B-BA35-D80696405100}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{FDE039C9-7C0D-4C91-8E69-00C7F67EC722}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{3DAD335A-19F6-45C9-9DF3-469153A35515}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{3855594B-10E3-4134-A3FC-C558F6FB0209}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA16FD6-0ABE-438A-95EA-DB69A379919F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59187F5-4BF1-49C1-9982-30F74A66A745}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2444,7 +2444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC3184E-FF16-4A5A-9F2E-AB16D8B3EE80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4E1E3A-CD43-4976-8693-70E35709BD78}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3717,7 +3717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2708D468-EB21-4D76-BE35-35BCC241C494}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE67908-9E1A-4BAE-889F-A02F94F38FDD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4988,7 +4988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1353FA90-89FB-4462-A7D5-25764147FF4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008D94DF-7FEF-460D-80EA-6101DD709ECD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6257,7 +6257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46687345-F365-489F-8FBC-F63FFFD89922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0002B0A3-417A-4442-B815-B86E35089053}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7520,7 +7520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7259C269-48BC-4807-A7A6-050E7BE30E3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CC661-CE5F-4DF1-BA42-EF7929BE3654}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
